--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H2">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I2">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J2">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>126.7421850407001</v>
+        <v>140.0925449204475</v>
       </c>
       <c r="R2">
-        <v>126.7421850407001</v>
+        <v>560.37017968179</v>
       </c>
       <c r="S2">
-        <v>0.006839673188078288</v>
+        <v>0.006532649578098985</v>
       </c>
       <c r="T2">
-        <v>0.006839673188078288</v>
+        <v>0.003623183324876786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H3">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I3">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J3">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>715.9957430849958</v>
+        <v>826.696237715601</v>
       </c>
       <c r="R3">
-        <v>715.9957430849958</v>
+        <v>4960.177426293606</v>
       </c>
       <c r="S3">
-        <v>0.03863888637539294</v>
+        <v>0.03854963753849685</v>
       </c>
       <c r="T3">
-        <v>0.03863888637539294</v>
+        <v>0.03207100019059288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H4">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I4">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J4">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>1444.391036742931</v>
+        <v>1717.14554969699</v>
       </c>
       <c r="R4">
-        <v>1444.391036742931</v>
+        <v>10302.87329818194</v>
       </c>
       <c r="S4">
-        <v>0.07794691754713545</v>
+        <v>0.08007214200536171</v>
       </c>
       <c r="T4">
-        <v>0.07794691754713545</v>
+        <v>0.06661524843004446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H5">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I5">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J5">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>988.6727667154897</v>
+        <v>1081.560263192681</v>
       </c>
       <c r="R5">
-        <v>988.6727667154897</v>
+        <v>6489.361579156085</v>
       </c>
       <c r="S5">
-        <v>0.05335396902077714</v>
+        <v>0.05043419120586652</v>
       </c>
       <c r="T5">
-        <v>0.05335396902077714</v>
+        <v>0.04195824031187018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H6">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I6">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J6">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>110.9562126565476</v>
+        <v>129.7314033607697</v>
       </c>
       <c r="R6">
-        <v>110.9562126565476</v>
+        <v>778.388420164618</v>
       </c>
       <c r="S6">
-        <v>0.005987779305793086</v>
+        <v>0.00604949962121235</v>
       </c>
       <c r="T6">
-        <v>0.005987779305793086</v>
+        <v>0.00503282302748359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H7">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I7">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J7">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>531.9180778646232</v>
+        <v>632.3433212602515</v>
       </c>
       <c r="R7">
-        <v>531.9180778646232</v>
+        <v>2529.373285041006</v>
       </c>
       <c r="S7">
-        <v>0.02870508989770457</v>
+        <v>0.02948677485436672</v>
       </c>
       <c r="T7">
-        <v>0.02870508989770457</v>
+        <v>0.01635415916306155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H8">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J8">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>61.83075823822736</v>
+        <v>72.84938953606751</v>
       </c>
       <c r="R8">
-        <v>61.83075823822736</v>
+        <v>437.096337216405</v>
       </c>
       <c r="S8">
-        <v>0.003336712075657762</v>
+        <v>0.003397036823678253</v>
       </c>
       <c r="T8">
-        <v>0.003336712075657762</v>
+        <v>0.002826132113715442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H9">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J9">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>349.2961690385245</v>
+        <v>429.889515416713</v>
       </c>
       <c r="R9">
-        <v>349.2961690385245</v>
+        <v>3869.005638750417</v>
       </c>
       <c r="S9">
-        <v>0.01884985367187782</v>
+        <v>0.02004615993742486</v>
       </c>
       <c r="T9">
-        <v>0.01884985367187782</v>
+        <v>0.02501581494242798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H10">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J10">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>704.6414180537903</v>
+        <v>892.9312056614837</v>
       </c>
       <c r="R10">
-        <v>704.6414180537903</v>
+        <v>8036.380850953353</v>
       </c>
       <c r="S10">
-        <v>0.03802614743247726</v>
+        <v>0.04163823754681831</v>
       </c>
       <c r="T10">
-        <v>0.03802614743247726</v>
+        <v>0.05196079689334603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H11">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J11">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>482.3207584426158</v>
+        <v>562.4211121640864</v>
       </c>
       <c r="R11">
-        <v>482.3207584426158</v>
+        <v>5061.790009476777</v>
       </c>
       <c r="S11">
-        <v>0.02602855835658964</v>
+        <v>0.02622623525883581</v>
       </c>
       <c r="T11">
-        <v>0.02602855835658964</v>
+        <v>0.03272799628056322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H12">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J12">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>54.12962351559003</v>
+        <v>67.46150227948344</v>
       </c>
       <c r="R12">
-        <v>54.12962351559003</v>
+        <v>607.153520515351</v>
       </c>
       <c r="S12">
-        <v>0.002921118446249475</v>
+        <v>0.00314579447931542</v>
       </c>
       <c r="T12">
-        <v>0.002921118446249475</v>
+        <v>0.003925670192551365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H13">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J13">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>259.4944853162243</v>
+        <v>328.8242422691195</v>
       </c>
       <c r="R13">
-        <v>259.4944853162243</v>
+        <v>1972.945453614717</v>
       </c>
       <c r="S13">
-        <v>0.01400368372299723</v>
+        <v>0.01533338943016483</v>
       </c>
       <c r="T13">
-        <v>0.01400368372299723</v>
+        <v>0.01275646586420345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H14">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I14">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J14">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>27.10274462926295</v>
+        <v>30.7373510174275</v>
       </c>
       <c r="R14">
-        <v>27.10274462926295</v>
+        <v>184.424106104565</v>
       </c>
       <c r="S14">
-        <v>0.001462606279863129</v>
+        <v>0.001433312124281144</v>
       </c>
       <c r="T14">
-        <v>0.001462606279863129</v>
+        <v>0.001192430236603258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H15">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I15">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J15">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>153.1096357084299</v>
+        <v>181.383330982249</v>
       </c>
       <c r="R15">
-        <v>153.1096357084299</v>
+        <v>1632.449978840241</v>
       </c>
       <c r="S15">
-        <v>0.008262599148461058</v>
+        <v>0.00845807848867503</v>
       </c>
       <c r="T15">
-        <v>0.008262599148461058</v>
+        <v>0.01055492557685369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H16">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I16">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J16">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>308.8708104651105</v>
+        <v>376.7545627714996</v>
       </c>
       <c r="R16">
-        <v>308.8708104651105</v>
+        <v>3390.791064943496</v>
       </c>
       <c r="S16">
-        <v>0.01666828925380943</v>
+        <v>0.0175684261923696</v>
       </c>
       <c r="T16">
-        <v>0.01666828925380943</v>
+        <v>0.02192382480384816</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H17">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I17">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J17">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>211.4193116490141</v>
+        <v>237.3024023165023</v>
       </c>
       <c r="R17">
-        <v>211.4193116490141</v>
+        <v>2135.721620848521</v>
       </c>
       <c r="S17">
-        <v>0.01140929515191308</v>
+        <v>0.01106563835538196</v>
       </c>
       <c r="T17">
-        <v>0.01140929515191308</v>
+        <v>0.01380892710534904</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H18">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I18">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J18">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>23.72704790985663</v>
+        <v>28.46403914889144</v>
       </c>
       <c r="R18">
-        <v>23.72704790985663</v>
+        <v>256.176352340023</v>
       </c>
       <c r="S18">
-        <v>0.001280435976144656</v>
+        <v>0.001327305414021775</v>
       </c>
       <c r="T18">
-        <v>0.001280435976144656</v>
+        <v>0.001656358460318501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H19">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I19">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J19">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>113.7461834307481</v>
+        <v>138.7408490590235</v>
       </c>
       <c r="R19">
-        <v>113.7461834307481</v>
+        <v>832.445094354141</v>
       </c>
       <c r="S19">
-        <v>0.006138340764818689</v>
+        <v>0.006469618705158072</v>
       </c>
       <c r="T19">
-        <v>0.006138340764818689</v>
+        <v>0.005382337058785177</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H20">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I20">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J20">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>38.80452234250339</v>
+        <v>40.273302015245</v>
       </c>
       <c r="R20">
-        <v>38.80452234250339</v>
+        <v>241.63981209147</v>
       </c>
       <c r="S20">
-        <v>0.002094095592221134</v>
+        <v>0.001877982654736849</v>
       </c>
       <c r="T20">
-        <v>0.002094095592221134</v>
+        <v>0.001562369607699924</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H21">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I21">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J21">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>219.2156684118784</v>
+        <v>237.655667368262</v>
       </c>
       <c r="R21">
-        <v>219.2156684118784</v>
+        <v>2138.901006314358</v>
       </c>
       <c r="S21">
-        <v>0.01183002746214216</v>
+        <v>0.01108211144317293</v>
       </c>
       <c r="T21">
-        <v>0.01183002746214216</v>
+        <v>0.01382948404578031</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H22">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I22">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J22">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>442.2276942645736</v>
+        <v>493.6388397137832</v>
       </c>
       <c r="R22">
-        <v>442.2276942645736</v>
+        <v>4442.749557424048</v>
       </c>
       <c r="S22">
-        <v>0.02386492628729561</v>
+        <v>0.02301885200115913</v>
       </c>
       <c r="T22">
-        <v>0.02386492628729561</v>
+        <v>0.02872546880029067</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H23">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I23">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J23">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>302.7009077768063</v>
+        <v>310.9230626938887</v>
       </c>
       <c r="R23">
-        <v>302.7009077768063</v>
+        <v>2798.307564244998</v>
       </c>
       <c r="S23">
-        <v>0.01633532893774186</v>
+        <v>0.01449864027726728</v>
       </c>
       <c r="T23">
-        <v>0.01633532893774186</v>
+        <v>0.01809300650224897</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H24">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I24">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J24">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>33.97134767471402</v>
+        <v>37.2947182262749</v>
       </c>
       <c r="R24">
-        <v>33.97134767471402</v>
+        <v>335.652464036474</v>
       </c>
       <c r="S24">
-        <v>0.001833272132550129</v>
+        <v>0.001739088439178145</v>
       </c>
       <c r="T24">
-        <v>0.001833272132550129</v>
+        <v>0.002170226851366976</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H25">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I25">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J25">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>162.8568020209763</v>
+        <v>181.783788487093</v>
       </c>
       <c r="R25">
-        <v>162.8568020209763</v>
+        <v>1090.702730922558</v>
       </c>
       <c r="S25">
-        <v>0.008788607375842136</v>
+        <v>0.008476752205763625</v>
       </c>
       <c r="T25">
-        <v>0.008788607375842136</v>
+        <v>0.007052152470569098</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H26">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I26">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J26">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>193.1136020123553</v>
+        <v>220.4148017249075</v>
       </c>
       <c r="R26">
-        <v>193.1136020123553</v>
+        <v>1322.488810349445</v>
       </c>
       <c r="S26">
-        <v>0.01042142302906468</v>
+        <v>0.01027815336149858</v>
       </c>
       <c r="T26">
-        <v>0.01042142302906468</v>
+        <v>0.00855081083671369</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H27">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I27">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J27">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>1090.943137269213</v>
+        <v>1300.683683248697</v>
       </c>
       <c r="R27">
-        <v>1090.943137269213</v>
+        <v>11706.15314923827</v>
       </c>
       <c r="S27">
-        <v>0.05887301472120047</v>
+        <v>0.06065212620300291</v>
       </c>
       <c r="T27">
-        <v>0.05887301472120047</v>
+        <v>0.07568842958927402</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H28">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I28">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J28">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>2200.77913072286</v>
+        <v>2701.673355168144</v>
       </c>
       <c r="R28">
-        <v>2200.77913072286</v>
+        <v>24315.06019651329</v>
       </c>
       <c r="S28">
-        <v>0.1187655870731092</v>
+        <v>0.1259816167507171</v>
       </c>
       <c r="T28">
-        <v>0.1187655870731092</v>
+        <v>0.157213791600062</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H29">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I29">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J29">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>1506.413662748817</v>
+        <v>1701.674354624124</v>
       </c>
       <c r="R29">
-        <v>1506.413662748817</v>
+        <v>15315.06919161711</v>
       </c>
       <c r="S29">
-        <v>0.08129398381406491</v>
+        <v>0.07935070535773114</v>
       </c>
       <c r="T29">
-        <v>0.08129398381406491</v>
+        <v>0.09902258422443411</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H30">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I30">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J30">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>169.0609475043689</v>
+        <v>204.1130851430799</v>
       </c>
       <c r="R30">
-        <v>169.0609475043689</v>
+        <v>1837.017766287719</v>
       </c>
       <c r="S30">
-        <v>0.009123415612768703</v>
+        <v>0.00951798870026669</v>
       </c>
       <c r="T30">
-        <v>0.009123415612768703</v>
+        <v>0.01187759873677724</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H31">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I31">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J31">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>810.4690317508706</v>
+        <v>994.8982499874957</v>
       </c>
       <c r="R31">
-        <v>810.4690317508706</v>
+        <v>5969.389499924973</v>
       </c>
       <c r="S31">
-        <v>0.04373716063403906</v>
+        <v>0.04639305850802349</v>
       </c>
       <c r="T31">
-        <v>0.04373716063403906</v>
+        <v>0.03859625883037612</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H32">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I32">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J32">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>151.7384683713914</v>
+        <v>159.185552047995</v>
       </c>
       <c r="R32">
-        <v>151.7384683713914</v>
+        <v>636.74220819198</v>
       </c>
       <c r="S32">
-        <v>0.008188603765877909</v>
+        <v>0.007422974791530161</v>
       </c>
       <c r="T32">
-        <v>0.008188603765877909</v>
+        <v>0.004116981657154686</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H33">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I33">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J33">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>857.205494613062</v>
+        <v>939.365453397162</v>
       </c>
       <c r="R33">
-        <v>857.205494613062</v>
+        <v>5636.192720382972</v>
       </c>
       <c r="S33">
-        <v>0.04625930534727322</v>
+        <v>0.0438035110026762</v>
       </c>
       <c r="T33">
-        <v>0.04625930534727322</v>
+        <v>0.03644190968884121</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H34">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I34">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J34">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>1729.255997711873</v>
+        <v>1951.172793887739</v>
       </c>
       <c r="R34">
-        <v>1729.255997711873</v>
+        <v>11707.03676332643</v>
       </c>
       <c r="S34">
-        <v>0.09331972522862336</v>
+        <v>0.09098505659974299</v>
       </c>
       <c r="T34">
-        <v>0.09331972522862336</v>
+        <v>0.07569414276950009</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H35">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I35">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J35">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>1183.660288748686</v>
+        <v>1228.964522468122</v>
       </c>
       <c r="R35">
-        <v>1183.660288748686</v>
+        <v>7373.787134808731</v>
       </c>
       <c r="S35">
-        <v>0.06387651860465884</v>
+        <v>0.05730779302895079</v>
       </c>
       <c r="T35">
-        <v>0.06387651860465884</v>
+        <v>0.04767666724021818</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H36">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I36">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J36">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>132.8391628989856</v>
+        <v>147.4123057274193</v>
       </c>
       <c r="R36">
-        <v>132.8391628989856</v>
+        <v>884.4738343645159</v>
       </c>
       <c r="S36">
-        <v>0.007168698097757979</v>
+        <v>0.006873977036848509</v>
       </c>
       <c r="T36">
-        <v>0.007168698097757979</v>
+        <v>0.005718739083830454</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H37">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I37">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J37">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>636.823756891312</v>
+        <v>718.524463495443</v>
       </c>
       <c r="R37">
-        <v>636.823756891312</v>
+        <v>2874.097853981772</v>
       </c>
       <c r="S37">
-        <v>0.03436635066802801</v>
+        <v>0.03350548407820522</v>
       </c>
       <c r="T37">
-        <v>0.03436635066802801</v>
+        <v>0.01858304348836732</v>
       </c>
     </row>
   </sheetData>
